--- a/5-Bonus/Sales_Data.xlsx
+++ b/5-Bonus/Sales_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Desktop\AutomateExcel\1-Examples\3-Merge-Excel-Files-Real-Life\INPUT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Documents\YT_Tutorials\99_Others\Automate_Excel_Workshop\5-Bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B255DE-68EF-4E2B-80F9-C6A294A8EF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF6825B-88A7-4FEB-BD55-623C91B1FA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33390" yWindow="5190" windowWidth="17280" windowHeight="8970" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Net Working Capital" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="31">
   <si>
     <t>Segment</t>
   </si>
@@ -108,6 +108,15 @@
   <si>
     <t>Overview 2021</t>
   </si>
+  <si>
+    <t>Total Sum:</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>some text</t>
+  </si>
 </sst>
 </file>
 
@@ -157,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +191,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -247,12 +262,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -265,11 +337,25 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -734,14 +820,15 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:L109"/>
+  <dimension ref="B2:N111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -752,26 +839,28 @@
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:14" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="2:12" ht="2.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="2:14" ht="2.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -805,8 +894,11 @@
       <c r="L4" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N4" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
@@ -839,12 +931,15 @@
       <c r="K5" s="6">
         <v>16185</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <f>+J5-K5</f>
         <v>16185</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -877,12 +972,15 @@
       <c r="K6" s="2">
         <v>7554</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <f t="shared" ref="L6:L69" si="2">+J6-K6</f>
         <v>22662</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -915,12 +1013,15 @@
       <c r="K7" s="2">
         <v>319860</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <f>+J7-K7</f>
         <v>13327.5</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,12 +1054,15 @@
       <c r="K8" s="2">
         <v>2920</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <f t="shared" si="2"/>
         <v>2920</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -991,12 +1095,15 @@
       <c r="K9" s="2">
         <v>7554</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <f t="shared" si="2"/>
         <v>22662</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,12 +1136,12 @@
       <c r="K10" s="2">
         <v>18170</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <f t="shared" si="2"/>
         <v>18170</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1067,12 +1174,12 @@
       <c r="K11" s="2">
         <v>500250</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f t="shared" si="2"/>
         <v>100050</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1105,12 +1212,12 @@
       <c r="K12" s="2">
         <v>18170</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <f t="shared" si="2"/>
         <v>18170</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1143,12 +1250,12 @@
       <c r="K13" s="2">
         <v>6630</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <f t="shared" si="2"/>
         <v>2559.1800000000003</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1181,12 +1288,12 @@
       <c r="K14" s="2">
         <v>4335</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <f t="shared" si="2"/>
         <v>12831.599999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1219,12 +1326,12 @@
       <c r="K15" s="2">
         <v>9150</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <f t="shared" si="2"/>
         <v>3531.8999999999996</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1257,7 +1364,7 @@
       <c r="K16" s="2">
         <v>110760</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <f t="shared" si="2"/>
         <v>3461.25</v>
       </c>
@@ -1295,7 +1402,7 @@
       <c r="K17" s="2">
         <v>245310</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="9">
         <f t="shared" si="2"/>
         <v>81612.75</v>
       </c>
@@ -1333,7 +1440,7 @@
       <c r="K18" s="2">
         <v>89100</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <f t="shared" si="2"/>
         <v>1856.25</v>
       </c>
@@ -1371,7 +1478,7 @@
       <c r="K19" s="2">
         <v>3885</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <f t="shared" si="2"/>
         <v>11344.2</v>
       </c>
@@ -1409,7 +1516,7 @@
       <c r="K20" s="2">
         <v>741520</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="9">
         <f t="shared" si="2"/>
         <v>236716</v>
       </c>
@@ -1447,7 +1554,7 @@
       <c r="K21" s="2">
         <v>23630</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <f t="shared" si="2"/>
         <v>11106.099999999999</v>
       </c>
@@ -1485,7 +1592,7 @@
       <c r="K22" s="2">
         <v>3885</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <f t="shared" si="2"/>
         <v>11344.2</v>
       </c>
@@ -1523,7 +1630,7 @@
       <c r="K23" s="2">
         <v>479000</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <f t="shared" si="2"/>
         <v>84304</v>
       </c>
@@ -1561,7 +1668,7 @@
       <c r="K24" s="2">
         <v>741520</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="9">
         <f t="shared" si="2"/>
         <v>236716</v>
       </c>
@@ -1599,7 +1706,7 @@
       <c r="K25" s="2">
         <v>327480</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="9">
         <f t="shared" si="2"/>
         <v>6822.5</v>
       </c>
@@ -1637,7 +1744,7 @@
       <c r="K26" s="2">
         <v>327480</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="9">
         <f t="shared" si="2"/>
         <v>6822.5</v>
       </c>
@@ -1675,7 +1782,7 @@
       <c r="K27" s="2">
         <v>479000</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
         <f t="shared" si="2"/>
         <v>84304</v>
       </c>
@@ -1713,7 +1820,7 @@
       <c r="K28" s="2">
         <v>212880</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="9">
         <f t="shared" si="2"/>
         <v>2217.5</v>
       </c>
@@ -1751,7 +1858,7 @@
       <c r="K29" s="2">
         <v>241080</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="9">
         <f t="shared" si="2"/>
         <v>2511.25</v>
       </c>
@@ -1789,7 +1896,7 @@
       <c r="K30" s="2">
         <v>241080</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="9">
         <f t="shared" si="2"/>
         <v>2511.25</v>
       </c>
@@ -1827,7 +1934,7 @@
       <c r="K31" s="2">
         <v>468500</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="9">
         <f t="shared" si="2"/>
         <v>76834</v>
       </c>
@@ -1865,7 +1972,7 @@
       <c r="K32" s="2">
         <v>8310</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <f t="shared" si="2"/>
         <v>7811.4</v>
       </c>
@@ -1903,7 +2010,7 @@
       <c r="K33" s="2">
         <v>38505</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="9">
         <f t="shared" si="2"/>
         <v>36194.699999999997</v>
       </c>
@@ -1941,7 +2048,7 @@
       <c r="K34" s="2">
         <v>19670</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="9">
         <f t="shared" si="2"/>
         <v>8654.7999999999993</v>
       </c>
@@ -1979,7 +2086,7 @@
       <c r="K35" s="2">
         <v>21255</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="9">
         <f t="shared" si="2"/>
         <v>7311.7200000000012</v>
       </c>
@@ -2017,7 +2124,7 @@
       <c r="K36" s="2">
         <v>2180</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="9">
         <f t="shared" si="2"/>
         <v>959.19999999999982</v>
       </c>
@@ -2055,7 +2162,7 @@
       <c r="K37" s="2">
         <v>20740</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="9">
         <f t="shared" si="2"/>
         <v>19080.800000000003</v>
       </c>
@@ -2093,7 +2200,7 @@
       <c r="K38" s="2">
         <v>7293</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="9">
         <f t="shared" si="2"/>
         <v>20420.400000000001</v>
       </c>
@@ -2131,7 +2238,7 @@
       <c r="K39" s="2">
         <v>7293</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="9">
         <f t="shared" si="2"/>
         <v>20420.400000000001</v>
       </c>
@@ -2169,7 +2276,7 @@
       <c r="K40" s="2">
         <v>143520</v>
       </c>
-      <c r="L40" s="10">
+      <c r="L40" s="9">
         <f t="shared" si="2"/>
         <v>40020</v>
       </c>
@@ -2207,7 +2314,7 @@
       <c r="K41" s="2">
         <v>28440</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L41" s="9">
         <f t="shared" si="2"/>
         <v>11660.400000000001</v>
       </c>
@@ -2245,7 +2352,7 @@
       <c r="K42" s="2">
         <v>114240</v>
       </c>
-      <c r="L42" s="10">
+      <c r="L42" s="9">
         <f t="shared" si="2"/>
         <v>-2380</v>
       </c>
@@ -2283,7 +2390,7 @@
       <c r="K43" s="2">
         <v>28440</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="9">
         <f t="shared" si="2"/>
         <v>11660.400000000001</v>
       </c>
@@ -2321,7 +2428,7 @@
       <c r="K44" s="2">
         <v>5652</v>
       </c>
-      <c r="L44" s="10">
+      <c r="L44" s="9">
         <f t="shared" si="2"/>
         <v>15373.439999999999</v>
       </c>
@@ -2359,7 +2466,7 @@
       <c r="K45" s="2">
         <v>12620</v>
       </c>
-      <c r="L45" s="10">
+      <c r="L45" s="9">
         <f t="shared" si="2"/>
         <v>4984.9000000000015</v>
       </c>
@@ -2397,7 +2504,7 @@
       <c r="K46" s="2">
         <v>5675</v>
       </c>
-      <c r="L46" s="10">
+      <c r="L46" s="9">
         <f t="shared" si="2"/>
         <v>1713.8500000000004</v>
       </c>
@@ -2435,7 +2542,7 @@
       <c r="K47" s="2">
         <v>7910</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47" s="9">
         <f t="shared" si="2"/>
         <v>2388.8199999999997</v>
       </c>
@@ -2473,7 +2580,7 @@
       <c r="K48" s="2">
         <v>7910</v>
       </c>
-      <c r="L48" s="10">
+      <c r="L48" s="9">
         <f t="shared" si="2"/>
         <v>2388.8199999999997</v>
       </c>
@@ -2511,7 +2618,7 @@
       <c r="K49" s="2">
         <v>5675</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49" s="9">
         <f t="shared" si="2"/>
         <v>1713.8500000000004</v>
       </c>
@@ -2549,7 +2656,7 @@
       <c r="K50" s="2">
         <v>425500</v>
       </c>
-      <c r="L50" s="10">
+      <c r="L50" s="9">
         <f t="shared" si="2"/>
         <v>49358</v>
       </c>
@@ -2587,7 +2694,7 @@
       <c r="K51" s="2">
         <v>9733.5</v>
       </c>
-      <c r="L51" s="10">
+      <c r="L51" s="9">
         <f t="shared" si="2"/>
         <v>26475.120000000003</v>
       </c>
@@ -2625,7 +2732,7 @@
       <c r="K52" s="2">
         <v>197400</v>
       </c>
-      <c r="L52" s="10">
+      <c r="L52" s="9">
         <f t="shared" si="2"/>
         <v>-6168.75</v>
       </c>
@@ -2663,7 +2770,7 @@
       <c r="K53" s="2">
         <v>11180</v>
       </c>
-      <c r="L53" s="10">
+      <c r="L53" s="9">
         <f t="shared" si="2"/>
         <v>9614.7999999999993</v>
       </c>
@@ -2701,7 +2808,7 @@
       <c r="K54" s="2">
         <v>2440</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L54" s="9">
         <f t="shared" si="2"/>
         <v>702.72000000000025</v>
       </c>
@@ -2739,7 +2846,7 @@
       <c r="K55" s="2">
         <v>1285</v>
       </c>
-      <c r="L55" s="10">
+      <c r="L55" s="9">
         <f t="shared" si="2"/>
         <v>370.07999999999993</v>
       </c>
@@ -2777,7 +2884,7 @@
       <c r="K56" s="2">
         <v>7080</v>
       </c>
-      <c r="L56" s="10">
+      <c r="L56" s="9">
         <f t="shared" si="2"/>
         <v>5947.2000000000007</v>
       </c>
@@ -2815,7 +2922,7 @@
       <c r="K57" s="2">
         <v>1794</v>
       </c>
-      <c r="L57" s="10">
+      <c r="L57" s="9">
         <f t="shared" si="2"/>
         <v>4807.92</v>
       </c>
@@ -2853,7 +2960,7 @@
       <c r="K58" s="2">
         <v>533500</v>
       </c>
-      <c r="L58" s="10">
+      <c r="L58" s="9">
         <f t="shared" si="2"/>
         <v>55484</v>
       </c>
@@ -2891,7 +2998,7 @@
       <c r="K59" s="2">
         <v>7080</v>
       </c>
-      <c r="L59" s="10">
+      <c r="L59" s="9">
         <f t="shared" si="2"/>
         <v>5947.2000000000007</v>
       </c>
@@ -2929,7 +3036,7 @@
       <c r="K60" s="2">
         <v>273500</v>
       </c>
-      <c r="L60" s="10">
+      <c r="L60" s="9">
         <f t="shared" si="2"/>
         <v>25162</v>
       </c>
@@ -2967,7 +3074,7 @@
       <c r="K61" s="2">
         <v>950625</v>
       </c>
-      <c r="L61" s="10">
+      <c r="L61" s="9">
         <f t="shared" si="2"/>
         <v>87457.5</v>
       </c>
@@ -3005,7 +3112,7 @@
       <c r="K62" s="2">
         <v>6963</v>
       </c>
-      <c r="L62" s="10">
+      <c r="L62" s="9">
         <f t="shared" si="2"/>
         <v>18382.32</v>
       </c>
@@ -3043,7 +3150,7 @@
       <c r="K63" s="2">
         <v>273500</v>
       </c>
-      <c r="L63" s="10">
+      <c r="L63" s="9">
         <f t="shared" si="2"/>
         <v>25162</v>
       </c>
@@ -3081,7 +3188,7 @@
       <c r="K64" s="2">
         <v>948375</v>
       </c>
-      <c r="L64" s="10">
+      <c r="L64" s="9">
         <f t="shared" si="2"/>
         <v>87250.5</v>
       </c>
@@ -3119,7 +3226,7 @@
       <c r="K65" s="2">
         <v>68040</v>
       </c>
-      <c r="L65" s="10">
+      <c r="L65" s="9">
         <f t="shared" si="2"/>
         <v>-3543.75</v>
       </c>
@@ -3157,7 +3264,7 @@
       <c r="K66" s="2">
         <v>329940</v>
       </c>
-      <c r="L66" s="10">
+      <c r="L66" s="9">
         <f t="shared" si="2"/>
         <v>74236.5</v>
       </c>
@@ -3195,7 +3302,7 @@
       <c r="K67" s="2">
         <v>329940</v>
       </c>
-      <c r="L67" s="10">
+      <c r="L67" s="9">
         <f t="shared" si="2"/>
         <v>74236.5</v>
       </c>
@@ -3233,7 +3340,7 @@
       <c r="K68" s="2">
         <v>4095</v>
       </c>
-      <c r="L68" s="10">
+      <c r="L68" s="9">
         <f t="shared" si="2"/>
         <v>1122.0299999999997</v>
       </c>
@@ -3271,7 +3378,7 @@
       <c r="K69" s="2">
         <v>16305</v>
       </c>
-      <c r="L69" s="10">
+      <c r="L69" s="9">
         <f t="shared" si="2"/>
         <v>5951.3250000000007</v>
       </c>
@@ -3309,7 +3416,7 @@
       <c r="K70" s="2">
         <v>303480</v>
       </c>
-      <c r="L70" s="10">
+      <c r="L70" s="9">
         <f t="shared" ref="L70:L109" si="6">+J70-K70</f>
         <v>-18967.5</v>
       </c>
@@ -3347,7 +3454,7 @@
       <c r="K71" s="2">
         <v>582400</v>
       </c>
-      <c r="L71" s="10">
+      <c r="L71" s="9">
         <f t="shared" si="6"/>
         <v>123200</v>
       </c>
@@ -3385,7 +3492,7 @@
       <c r="K72" s="2">
         <v>10561.5</v>
       </c>
-      <c r="L72" s="10">
+      <c r="L72" s="9">
         <f t="shared" si="6"/>
         <v>27459.9</v>
       </c>
@@ -3423,7 +3530,7 @@
       <c r="K73" s="2">
         <v>183820</v>
       </c>
-      <c r="L73" s="10">
+      <c r="L73" s="9">
         <f t="shared" si="6"/>
         <v>38885</v>
       </c>
@@ -3461,7 +3568,7 @@
       <c r="K74" s="2">
         <v>3840</v>
       </c>
-      <c r="L74" s="10">
+      <c r="L74" s="9">
         <f t="shared" si="6"/>
         <v>1286.3999999999996</v>
       </c>
@@ -3499,7 +3606,7 @@
       <c r="K75" s="2">
         <v>5811</v>
       </c>
-      <c r="L75" s="10">
+      <c r="L75" s="9">
         <f t="shared" si="6"/>
         <v>14876.16</v>
       </c>
@@ -3537,7 +3644,7 @@
       <c r="K76" s="2">
         <v>218250</v>
       </c>
-      <c r="L76" s="10">
+      <c r="L76" s="9">
         <f t="shared" si="6"/>
         <v>14841</v>
       </c>
@@ -3575,7 +3682,7 @@
       <c r="K77" s="2">
         <v>547170</v>
       </c>
-      <c r="L77" s="10">
+      <c r="L77" s="9">
         <f t="shared" si="6"/>
         <v>108381.75</v>
       </c>
@@ -3613,7 +3720,7 @@
       <c r="K78" s="2">
         <v>12078</v>
       </c>
-      <c r="L78" s="10">
+      <c r="L78" s="9">
         <f t="shared" si="6"/>
         <v>30919.68</v>
       </c>
@@ -3651,7 +3758,7 @@
       <c r="K79" s="2">
         <v>23940</v>
       </c>
-      <c r="L79" s="10">
+      <c r="L79" s="9">
         <f t="shared" si="6"/>
         <v>18673.199999999997</v>
       </c>
@@ -3689,7 +3796,7 @@
       <c r="K80" s="2">
         <v>341500</v>
       </c>
-      <c r="L80" s="10">
+      <c r="L80" s="9">
         <f t="shared" si="6"/>
         <v>23222</v>
       </c>
@@ -3727,7 +3834,7 @@
       <c r="K81" s="2">
         <v>9040</v>
       </c>
-      <c r="L81" s="10">
+      <c r="L81" s="9">
         <f t="shared" si="6"/>
         <v>2223.84</v>
       </c>
@@ -3765,7 +3872,7 @@
       <c r="K82" s="2">
         <v>26890</v>
       </c>
-      <c r="L82" s="10">
+      <c r="L82" s="9">
         <f t="shared" si="6"/>
         <v>8604.8000000000029</v>
       </c>
@@ -3803,7 +3910,7 @@
       <c r="K83" s="2">
         <v>13670</v>
       </c>
-      <c r="L83" s="10">
+      <c r="L83" s="9">
         <f t="shared" si="6"/>
         <v>3171.4399999999987</v>
       </c>
@@ -3841,7 +3948,7 @@
       <c r="K84" s="2">
         <v>6327</v>
       </c>
-      <c r="L84" s="10">
+      <c r="L84" s="9">
         <f t="shared" si="6"/>
         <v>15944.04</v>
       </c>
@@ -3879,7 +3986,7 @@
       <c r="K85" s="2">
         <v>13670</v>
       </c>
-      <c r="L85" s="10">
+      <c r="L85" s="9">
         <f t="shared" si="6"/>
         <v>3171.4399999999987</v>
       </c>
@@ -3917,7 +4024,7 @@
       <c r="K86" s="2">
         <v>239980</v>
       </c>
-      <c r="L86" s="10">
+      <c r="L86" s="9">
         <f t="shared" si="6"/>
         <v>41073.5</v>
       </c>
@@ -3955,7 +4062,7 @@
       <c r="K87" s="2">
         <v>12490</v>
       </c>
-      <c r="L87" s="10">
+      <c r="L87" s="9">
         <f t="shared" si="6"/>
         <v>9242.5999999999985</v>
       </c>
@@ -3993,7 +4100,7 @@
       <c r="K88" s="2">
         <v>684320</v>
       </c>
-      <c r="L88" s="10">
+      <c r="L88" s="9">
         <f t="shared" si="6"/>
         <v>117124</v>
       </c>
@@ -4031,7 +4138,7 @@
       <c r="K89" s="2">
         <v>189960</v>
       </c>
-      <c r="L89" s="10">
+      <c r="L89" s="9">
         <f t="shared" si="6"/>
         <v>-17808.75</v>
       </c>
@@ -4069,7 +4176,7 @@
       <c r="K90" s="2">
         <v>15650</v>
       </c>
-      <c r="L90" s="10">
+      <c r="L90" s="9">
         <f t="shared" si="6"/>
         <v>4773.25</v>
       </c>
@@ -4107,7 +4214,7 @@
       <c r="K91" s="2">
         <v>12490</v>
       </c>
-      <c r="L91" s="10">
+      <c r="L91" s="9">
         <f t="shared" si="6"/>
         <v>9242.5999999999985</v>
       </c>
@@ -4145,7 +4252,7 @@
       <c r="K92" s="2">
         <v>684320</v>
       </c>
-      <c r="L92" s="10">
+      <c r="L92" s="9">
         <f t="shared" si="6"/>
         <v>117124</v>
       </c>
@@ -4183,7 +4290,7 @@
       <c r="K93" s="2">
         <v>189960</v>
       </c>
-      <c r="L93" s="10">
+      <c r="L93" s="9">
         <f t="shared" si="6"/>
         <v>-17808.75</v>
       </c>
@@ -4221,7 +4328,7 @@
       <c r="K94" s="2">
         <v>15650</v>
       </c>
-      <c r="L94" s="10">
+      <c r="L94" s="9">
         <f t="shared" si="6"/>
         <v>4773.25</v>
       </c>
@@ -4259,7 +4366,7 @@
       <c r="K95" s="2">
         <v>199080</v>
       </c>
-      <c r="L95" s="10">
+      <c r="L95" s="9">
         <f t="shared" si="6"/>
         <v>-18663.75</v>
       </c>
@@ -4297,7 +4404,7 @@
       <c r="K96" s="2">
         <v>24280</v>
       </c>
-      <c r="L96" s="10">
+      <c r="L96" s="9">
         <f t="shared" si="6"/>
         <v>17481.599999999999</v>
       </c>
@@ -4335,7 +4442,7 @@
       <c r="K97" s="2">
         <v>374000</v>
       </c>
-      <c r="L97" s="10">
+      <c r="L97" s="9">
         <f t="shared" si="6"/>
         <v>11968</v>
       </c>
@@ -4373,7 +4480,7 @@
       <c r="K98" s="2">
         <v>23000</v>
       </c>
-      <c r="L98" s="10">
+      <c r="L98" s="9">
         <f t="shared" si="6"/>
         <v>6670</v>
       </c>
@@ -4411,7 +4518,7 @@
       <c r="K99" s="2">
         <v>579150</v>
       </c>
-      <c r="L99" s="10">
+      <c r="L99" s="9">
         <f t="shared" si="6"/>
         <v>91327.5</v>
       </c>
@@ -4449,7 +4556,7 @@
       <c r="K100" s="2">
         <v>52000</v>
       </c>
-      <c r="L100" s="10">
+      <c r="L100" s="9">
         <f t="shared" si="6"/>
         <v>8200</v>
       </c>
@@ -4474,7 +4581,7 @@
         <v>7</v>
       </c>
       <c r="H101" s="7">
-        <f t="shared" ref="H101:H132" si="7">F101*G101</f>
+        <f t="shared" ref="H101:H109" si="7">F101*G101</f>
         <v>2716</v>
       </c>
       <c r="I101" s="2">
@@ -4487,7 +4594,7 @@
       <c r="K101" s="2">
         <v>1940</v>
       </c>
-      <c r="L101" s="10">
+      <c r="L101" s="9">
         <f t="shared" si="6"/>
         <v>395.76000000000022</v>
       </c>
@@ -4525,7 +4632,7 @@
       <c r="K102" s="2">
         <v>23000</v>
       </c>
-      <c r="L102" s="10">
+      <c r="L102" s="9">
         <f t="shared" si="6"/>
         <v>6670</v>
       </c>
@@ -4563,7 +4670,7 @@
       <c r="K103" s="2">
         <v>182000</v>
       </c>
-      <c r="L103" s="10">
+      <c r="L103" s="9">
         <f t="shared" si="6"/>
         <v>28700</v>
       </c>
@@ -4601,7 +4708,7 @@
       <c r="K104" s="2">
         <v>374000</v>
       </c>
-      <c r="L104" s="10">
+      <c r="L104" s="9">
         <f t="shared" si="6"/>
         <v>11968</v>
       </c>
@@ -4639,7 +4746,7 @@
       <c r="K105" s="2">
         <v>222000</v>
       </c>
-      <c r="L105" s="10">
+      <c r="L105" s="9">
         <f t="shared" si="6"/>
         <v>7104</v>
       </c>
@@ -4677,7 +4784,7 @@
       <c r="K106" s="2">
         <v>16140</v>
       </c>
-      <c r="L106" s="10">
+      <c r="L106" s="9">
         <f t="shared" si="6"/>
         <v>4438.5</v>
       </c>
@@ -4715,7 +4822,7 @@
       <c r="K107" s="2">
         <v>25590</v>
       </c>
-      <c r="L107" s="10">
+      <c r="L107" s="9">
         <f t="shared" si="6"/>
         <v>7037.25</v>
       </c>
@@ -4753,52 +4860,90 @@
       <c r="K108" s="2">
         <v>8655</v>
       </c>
-      <c r="L108" s="10">
+      <c r="L108" s="9">
         <f t="shared" si="6"/>
         <v>6058.5</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="C109" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="12">
         <v>723</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109" s="12">
         <v>7</v>
       </c>
-      <c r="H109" s="7">
+      <c r="H109" s="13">
         <f t="shared" si="7"/>
         <v>5061</v>
       </c>
-      <c r="I109" s="2">
+      <c r="I109" s="12">
         <v>759.15000000000009</v>
       </c>
-      <c r="J109" s="7">
+      <c r="J109" s="13">
         <f t="shared" si="5"/>
         <v>4301.8500000000004</v>
       </c>
-      <c r="K109" s="2">
+      <c r="K109" s="12">
         <v>3615</v>
       </c>
-      <c r="L109" s="10">
+      <c r="L109" s="14">
         <f t="shared" si="6"/>
         <v>686.85000000000036</v>
       </c>
     </row>
+    <row r="110" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="15">
+        <f>+SUM(F5:F109)</f>
+        <v>185137.5</v>
+      </c>
+      <c r="G110" s="15">
+        <f>+SUM(G5:G109)</f>
+        <v>12435</v>
+      </c>
+      <c r="H110" s="15">
+        <f>+SUM(H5:H109)</f>
+        <v>21376777.5</v>
+      </c>
+      <c r="I110" s="15">
+        <f>+SUM(I5:I109)</f>
+        <v>1665011.3949999998</v>
+      </c>
+      <c r="J110" s="15">
+        <f>+SUM(J5:J109)</f>
+        <v>19711766.105</v>
+      </c>
+      <c r="K110" s="15">
+        <f>+SUM(K5:K109)</f>
+        <v>16986209</v>
+      </c>
+      <c r="L110" s="15">
+        <f>+SUM(L5:L109)</f>
+        <v>2725557.1049999995</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B110:E110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
